--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11839.91503192791</v>
+        <v>2356143.091353656</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11839.91503192791</v>
+        <v>2356143.091353656</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37951.30511127252</v>
+        <v>2280342.183856231</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37951.30511127252</v>
+        <v>2280342.183856231</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266425165.254049</v>
+        <v>51063025.23616148</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12339.76463701209</v>
+        <v>1292785.332007445</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23199.32414765775</v>
+        <v>2331771.390281835</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34058.88365830338</v>
+        <v>3370757.448556227</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46070.49481208547</v>
+        <v>4347319.798902384</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58082.10596586751</v>
+        <v>5323882.149248541</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>70093.71711964956</v>
+        <v>6300444.499594694</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82105.32827343162</v>
+        <v>7277006.849940846</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94116.93942721374</v>
+        <v>8253569.200286997</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>105903.3857167817</v>
+        <v>9213835.745788228</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117757.462491566</v>
+        <v>10190204.4179757</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>129610.9057309967</v>
+        <v>11166447.01662782</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141464.3489704275</v>
+        <v>12142689.61527995</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>153317.7922098582</v>
+        <v>13118932.21393208</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>165171.2354492889</v>
+        <v>14095174.81258421</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>177036.2797186548</v>
+        <v>15070822.32939859</v>
       </c>
     </row>
   </sheetData>
